--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3050.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3050.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.209329783624463</v>
+        <v>0.6043246984481812</v>
       </c>
       <c r="B1">
-        <v>0.3681031801974992</v>
+        <v>4.108129978179932</v>
       </c>
       <c r="C1">
-        <v>1.814767529877392</v>
+        <v>6.178332328796387</v>
       </c>
       <c r="D1">
-        <v>4.736932546945492</v>
+        <v>1.505155205726624</v>
       </c>
       <c r="E1">
-        <v>3.712528025435805</v>
+        <v>0.8473306894302368</v>
       </c>
     </row>
   </sheetData>
